--- a/medicine/Enfance/Dominique_Arly/Dominique_Arly.xlsx
+++ b/medicine/Enfance/Dominique_Arly/Dominique_Arly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique Arly, né Constant Pettex le 8 novembre 1915 à Flumet dans le département de la Savoie en France et mort le 8 novembre 2009 à Aoste en Isère (France) où il était instituteur, est un écrivain français, auteur de roman policier. Sous les pseudonymes Dominique Égleton et Dominique Égly, il publie de la littérature d'enfance et de jeunesse et de la littérature érotique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès son enfance, il démontre des dons pour l'écriture et gagne à huit ans un concours de poésie organisé par Franc-Nohain dans L'Écho de Paris.  Puis, il rédige sa rédaction du certificat d'études primaires en vers, obtient la note maximale de 10 sur 10 et reçoit un prix spécial de l'inspection académique. En 1935, il publie un essai, intitulé Je veux vivre, signé Dominique Égleton. Il suit les cours de l'école normale primaire et devient instituteur, avant d'être nommé directeur d'école. De 1948 à 1980, il collabore au quotidien Le Progrès.
 Sous le pseudonyme de Dominique Égleton, il publie en 1946 deux romans, Les Feuilles du matin et Neige, puis plusieurs ouvrages pour l'enfance.
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans signés Dominique Arly
-Dans la collection Angoisse du Fleuve noir
-Les Revenantes no 126 (1966)
+          <t>Romans signés Dominique Arly</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Dans la collection Angoisse du Fleuve noir</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Revenantes no 126 (1966)
 Comme un sépulcre blanchi no 132 (1966)
 Leur âme au Diable no 145 (1967)
 L'Image fantôme no 153 (1968)
@@ -567,8 +589,47 @@
 La Prison de chair no 236 (1973)
 Le Manuscrit maudit no 245 (1973)
 Perfide Asmodée no 250 (1974)
-Au-delà du cauchemar no 258 (1974)
-Dans la collection Spécial Police du Fleuve noir
+Au-delà du cauchemar no 258 (1974)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dominique_Arly</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Arly</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans signés Dominique Arly</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Dans la collection Spécial Police du Fleuve noir</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 Meurtre en eurovision no 556 (1966)
 Les Ficelles du pantin no 604 (1967)
 La Menteuse no 660 (1968)
@@ -616,64 +677,244 @@
 Les Vieux Coffiots no 1516 (1979)  (ISBN 2-265-01106-1)
 Stop-bar no 1539 (1980)  (ISBN 2-265-01177-0)
 Le Vin mauvais no 1554 (1980)  (ISBN 2-265-01240-8)
-Romans signés Dominique Égly
-Dans la collection Alcôve des Éditions Phénix
-Elles disent toutes oui no 206 (1980)  (ISBN 2-85235-142-0)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dominique_Arly</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Arly</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans signés Dominique Égly</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Dans la collection Alcôve des Éditions Phénix</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elles disent toutes oui no 206 (1980)  (ISBN 2-85235-142-0)
 La Perverse Inconnue no 207 (1980)  (ISBN 2-85235-145-5)
 Adorables Patineuses no 213 (1981)  (ISBN 2-85235-157-9)
 Une si belle envie no 214 (1981)  (ISBN 2-85235-159-5)
 De brûlants souvenirs no 217 (1981)  (ISBN 2-85235-165-X)
 Créatures de rêve no 220 (1982)  (ISBN 2-7167-0884-3)
-L'Auberge rose no 224 (1982)  (ISBN 2-7167-0905-X)
-Dans la collection Frivole aux Éditions Eurédif
-L'Innocent aux mains pleines no 129 (1983)  (ISBN 2-7167-0982-3)
+L'Auberge rose no 224 (1982)  (ISBN 2-7167-0905-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dominique_Arly</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Arly</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans signés Dominique Égly</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Dans la collection Frivole aux Éditions Eurédif</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Innocent aux mains pleines no 129 (1983)  (ISBN 2-7167-0982-3)
 Une belle menteuse no 132 (1983)  (ISBN 2-7167-1029-5)
 Un amour tout nu no 136 (1983)  (ISBN 2-7167-1073-2)
 Les Chichiteuses no 141 (1984)  (ISBN 2-7167-1113-5)
 Bonne à tout faire no 144 (1984)  (ISBN 2-7167-1183-6)
-Péchés cachés no 147 (1985)  (ISBN 2-7167-1216-6)
-Romans de littérature d'enfance et de jeunesse signés Dominique Égleton
-Michou et les Carottes, Éditions GP (1953)
+Péchés cachés no 147 (1985)  (ISBN 2-7167-1216-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dominique_Arly</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Arly</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse signés Dominique Égleton</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Michou et les Carottes, Éditions GP (1953)
 Zoupette et les Coquillettes, Éditions GP (1953)
 Michou et les Épinards, Éditions GP (1954)
 Zoupette et les Petits Pois, Éditions GP (1954)
 Zoupette et les Tomates, Éditions GP (1955)
 Un chant dans la forêt, Éditions GP, coll. « Super 1000 » no 40 (1966)
 Quelques brins d’edelweiss, Presses de la Cité (1967)
-Le Maître de la foudre, Éditions GP (1970)
-Autres romans signés Dominique Égleton
-Les Feuilles du matin, Éditions Lire (1946)
-Neige, Éditions Lire (1946)
-Essai signé Dominique Égleton
-Je veux vivre (1938)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Le Maître de la foudre, Éditions GP (1970)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Dominique_Arly</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dominique_Arly</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres romans signés Dominique Égleton</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Feuilles du matin, Éditions Lire (1946)
+Neige, Éditions Lire (1946)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dominique_Arly</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Arly</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Essai signé Dominique Égleton</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Je veux vivre (1938)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dominique_Arly</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Arly</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 30 (?).</t>
